--- a/data-raw/fsaArcPlc/input_data/fsaArcCoPrice/ARC_CO_2024.xlsx
+++ b/data-raw/fsaArcPlc/input_data/fsaArcCoPrice/ARC_CO_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\EPAS\2014FBIMP\ARC_PLC\Webpage Posting\2025-0110\Program Year 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\EPAS\2014FBIMP\ARC_PLC\Webpage Posting\2025-0410\Program Year 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83969347-B1D8-4207-9003-3A6A6CCDB3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9284E54-25EC-4138-8A5A-349C700E3E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <t>BASED ON 2018/19-2022/23 MARKET YEAR AVERAGE (MYA) PRICES, 2024 EFFECTIVE REFERENCE PRICES AND 2024 NATIONAL LOAN RATES</t>
   </si>
   <si>
-    <t>January 10, 2025 1/</t>
+    <t>April 10, 2025 1/</t>
   </si>
   <si>
     <t>Commodity</t>
@@ -1065,7 +1065,7 @@
         <v>6.21</v>
       </c>
       <c r="L9" s="6">
-        <v>5.55</v>
+        <v>5.5</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>21</v>
@@ -1074,7 +1074,7 @@
         <v>3.38</v>
       </c>
       <c r="O9" s="6">
-        <v>5.55</v>
+        <v>5.5</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>21</v>
@@ -1115,7 +1115,7 @@
         <v>5.07</v>
       </c>
       <c r="L10" s="6">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>21</v>
@@ -1124,7 +1124,7 @@
         <v>2.5</v>
       </c>
       <c r="O10" s="6">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>21</v>
@@ -1165,7 +1165,7 @@
         <v>3.38</v>
       </c>
       <c r="L11" s="6">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>21</v>
@@ -1174,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="6">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>21</v>
@@ -1215,7 +1215,7 @@
         <v>0.26750000000000002</v>
       </c>
       <c r="L12" s="12">
-        <v>0.26</v>
+        <v>0.255</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>21</v>
@@ -1224,7 +1224,7 @@
         <v>0.17749999999999999</v>
       </c>
       <c r="O12" s="12">
-        <v>0.26</v>
+        <v>0.255</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>21</v>
@@ -1265,7 +1265,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="L13" s="6">
-        <v>4.25</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>21</v>
@@ -1274,7 +1274,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="O13" s="6">
-        <v>4.25</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>21</v>
@@ -1315,7 +1315,7 @@
         <v>5.01</v>
       </c>
       <c r="L14" s="6">
-        <v>4.25</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>21</v>
@@ -1324,7 +1324,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="O14" s="6">
-        <v>4.25</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>21</v>
@@ -1365,7 +1365,7 @@
         <v>11.12</v>
       </c>
       <c r="L15" s="6">
-        <v>10.199999999999999</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>21</v>
@@ -1374,7 +1374,7 @@
         <v>6.2</v>
       </c>
       <c r="O15" s="6">
-        <v>10.199999999999999</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>21</v>
@@ -1465,7 +1465,7 @@
         <v>0.24779999999999999</v>
       </c>
       <c r="L17" s="12">
-        <v>0.34499999999999997</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>21</v>
@@ -1474,7 +1474,7 @@
         <v>0.13</v>
       </c>
       <c r="O17" s="12">
-        <v>0.34499999999999997</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>21</v>
@@ -1515,7 +1515,7 @@
         <v>0.23369999999999999</v>
       </c>
       <c r="L18" s="12">
-        <v>0.20300000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>21</v>
@@ -1524,7 +1524,7 @@
         <v>0.1009</v>
       </c>
       <c r="O18" s="12">
-        <v>0.20300000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>21</v>
@@ -1665,7 +1665,7 @@
         <v>0.23080000000000001</v>
       </c>
       <c r="L21" s="12">
-        <v>0.19850000000000001</v>
+        <v>0.2155</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>21</v>
@@ -1674,7 +1674,7 @@
         <v>0.1009</v>
       </c>
       <c r="O21" s="12">
-        <v>0.19850000000000001</v>
+        <v>0.2155</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>21</v>
@@ -1715,7 +1715,7 @@
         <v>13.356</v>
       </c>
       <c r="L22" s="12">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>21</v>
@@ -1724,7 +1724,7 @@
         <v>5.6504000000000003</v>
       </c>
       <c r="O22" s="12">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>21</v>
@@ -1765,7 +1765,7 @@
         <v>0.28799999999999998</v>
       </c>
       <c r="L23" s="12">
-        <v>0.47899999999999998</v>
+        <v>0.48249999999999998</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>21</v>
@@ -1774,7 +1774,7 @@
         <v>0.1009</v>
       </c>
       <c r="O23" s="12">
-        <v>0.47899999999999998</v>
+        <v>0.48249999999999998</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>21</v>
@@ -1815,7 +1815,7 @@
         <v>0.20649999999999999</v>
       </c>
       <c r="L24" s="12">
-        <v>0.159</v>
+        <v>0.2</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>21</v>
@@ -1824,7 +1824,7 @@
         <v>0.1009</v>
       </c>
       <c r="O24" s="12">
-        <v>0.159</v>
+        <v>0.2</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>21</v>
@@ -1865,7 +1865,7 @@
         <v>0.2243</v>
       </c>
       <c r="L25" s="12">
-        <v>0.29899999999999999</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>21</v>
@@ -1874,7 +1874,7 @@
         <v>0.1009</v>
       </c>
       <c r="O25" s="12">
-        <v>0.29899999999999999</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>21</v>
@@ -1915,7 +1915,7 @@
         <v>0.24229999999999999</v>
       </c>
       <c r="L26" s="12">
-        <v>0.191</v>
+        <v>0.24</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>21</v>
@@ -1924,7 +1924,7 @@
         <v>0.1009</v>
       </c>
       <c r="O26" s="12">
-        <v>0.191</v>
+        <v>0.24</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>21</v>
@@ -2015,7 +2015,7 @@
         <v>0.39579999999999999</v>
       </c>
       <c r="L28" s="12">
-        <v>0.34329999999999999</v>
+        <v>0.33610000000000001</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>21</v>
@@ -2024,7 +2024,7 @@
         <v>0.25</v>
       </c>
       <c r="O28" s="12">
-        <v>0.34329999999999999</v>
+        <v>0.33610000000000001</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>21</v>
@@ -2065,7 +2065,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="L29" s="12">
-        <v>0.14299999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>21</v>
@@ -2074,7 +2074,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O29" s="12">
-        <v>0.14299999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>21</v>
@@ -2115,7 +2115,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="L30" s="12">
-        <v>0.14799999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>21</v>
@@ -2124,7 +2124,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O30" s="12">
-        <v>0.14799999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>21</v>
@@ -2165,7 +2165,7 @@
         <v>0.25369999999999998</v>
       </c>
       <c r="L31" s="18">
-        <v>0.22</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="M31" s="19" t="s">
         <v>21</v>
@@ -2174,7 +2174,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O31" s="18">
-        <v>0.22</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="P31" s="19" t="s">
         <v>21</v>
